--- a/MES-Py/Results/EnergySystemSize.xlsx
+++ b/MES-Py/Results/EnergySystemSize.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5.401695762256722e-05</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.177950372793082e-06</v>
+        <v>666.8806720853029</v>
       </c>
     </row>
     <row r="4">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1078994876807386</v>
+        <v>7.567059578359792e-08</v>
       </c>
     </row>
     <row r="7">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8.553289658906468e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.002028443495382835</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3.466840353795613e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.877196044562563e-06</v>
       </c>
     </row>
     <row r="9">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01818089103894544</v>
+        <v>0.0002772902002210955</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04286354165525722</v>
+        <v>0.0004530900402478331</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007467251329488989</v>
+        <v>8.135901356490227e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.26670079599658e-05</v>
       </c>
     </row>
     <row r="10">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01762186129319643</v>
+        <v>2.7450782572633e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02411315817532629</v>
+        <v>4.372936136976424e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>2.937775325815179e-05</v>
+        <v>2.949925513776652e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>2.675992981733268e-05</v>
+        <v>3.11120980856322e-05</v>
       </c>
     </row>
     <row r="11">
@@ -540,16 +540,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001000323079135266</v>
+        <v>0.3155403558704345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001553257255651722</v>
+        <v>1.405171317649269</v>
       </c>
       <c r="E11" t="n">
-        <v>3.544791798433038e-05</v>
+        <v>0.04831434187694064</v>
       </c>
       <c r="F11" t="n">
-        <v>7.081362560235255e-06</v>
+        <v>0.05744732686500729</v>
       </c>
     </row>
   </sheetData>

--- a/MES-Py/Results/EnergySystemSize.xlsx
+++ b/MES-Py/Results/EnergySystemSize.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.401695762256722e-05</v>
+        <v>2032.767216984</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>666.8806720853029</v>
+        <v>19597.6363464</v>
       </c>
     </row>
     <row r="4">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.567059578359792e-08</v>
+        <v>279.393742994</v>
       </c>
     </row>
     <row r="7">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.553289658906468e-05</v>
+        <v>2139.8164009375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002028443495382835</v>
+        <v>7201.641161961001</v>
       </c>
       <c r="E8" t="n">
-        <v>3.466840353795613e-06</v>
+        <v>444.8803653181</v>
       </c>
       <c r="F8" t="n">
-        <v>4.877196044562563e-06</v>
+        <v>163.7135279627225</v>
       </c>
     </row>
     <row r="9">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002772902002210955</v>
+        <v>2250.38056543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004530900402478331</v>
+        <v>2352.41127905</v>
       </c>
       <c r="E9" t="n">
-        <v>8.135901356490227e-05</v>
+        <v>2216.9730776</v>
       </c>
       <c r="F9" t="n">
-        <v>3.26670079599658e-05</v>
+        <v>1836.1378784</v>
       </c>
     </row>
     <row r="10">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.7450782572633e-05</v>
+        <v>172.728905744</v>
       </c>
       <c r="D10" t="n">
-        <v>4.372936136976424e-05</v>
+        <v>168.928964372</v>
       </c>
       <c r="E10" t="n">
-        <v>2.949925513776652e-05</v>
+        <v>164.207843733</v>
       </c>
       <c r="F10" t="n">
-        <v>3.11120980856322e-05</v>
+        <v>175.243956489</v>
       </c>
     </row>
     <row r="11">
@@ -540,16 +540,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3155403558704345</v>
+        <v>2460.69404593</v>
       </c>
       <c r="D11" t="n">
-        <v>1.405171317649269</v>
+        <v>2401.39195165</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04831434187694064</v>
+        <v>2512.07470549</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05744732686500729</v>
+        <v>2476.4910161</v>
       </c>
     </row>
   </sheetData>
